--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.1.3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.1.3.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -188,6 +188,22 @@
   </si>
   <si>
     <t>吕崇新、陈佳文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑良杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】业主电话非必填项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】业主精度问题修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】业主付N押N选择框</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +866,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -951,11 +967,15 @@
       <c r="E2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="13">
+        <v>42510</v>
+      </c>
       <c r="G2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="13">
+        <v>42513</v>
+      </c>
       <c r="I2" s="12" t="s">
         <v>32</v>
       </c>
@@ -989,11 +1009,15 @@
       <c r="E3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13">
+        <v>42510</v>
+      </c>
       <c r="G3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="13">
+        <v>42513</v>
+      </c>
       <c r="I3" s="12" t="s">
         <v>32</v>
       </c>
@@ -1027,11 +1051,15 @@
       <c r="E4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13">
+        <v>42510</v>
+      </c>
       <c r="G4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13">
+        <v>42513</v>
+      </c>
       <c r="I4" s="12" t="s">
         <v>32</v>
       </c>
@@ -1065,11 +1093,15 @@
       <c r="E5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13">
+        <v>42510</v>
+      </c>
       <c r="G5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13">
+        <v>42513</v>
+      </c>
       <c r="I5" s="12" t="s">
         <v>32</v>
       </c>
@@ -1103,11 +1135,15 @@
       <c r="E6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13">
+        <v>42510</v>
+      </c>
       <c r="G6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13">
+        <v>42513</v>
+      </c>
       <c r="I6" s="12" t="s">
         <v>32</v>
       </c>
@@ -1141,11 +1177,15 @@
       <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="13">
+        <v>42520</v>
+      </c>
       <c r="G7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13">
+        <v>42520</v>
+      </c>
       <c r="I7" s="12" t="s">
         <v>32</v>
       </c>
@@ -1179,11 +1219,15 @@
       <c r="E8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="13">
+        <v>42521</v>
+      </c>
       <c r="G8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13">
+        <v>42521</v>
+      </c>
       <c r="I8" s="12" t="s">
         <v>32</v>
       </c>
@@ -1202,16 +1246,36 @@
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="13">
+        <v>42521</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="13">
+        <v>42521</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
@@ -1224,16 +1288,36 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="13">
+        <v>42521</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="13">
+        <v>42521</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="14"/>
@@ -1246,16 +1330,36 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="13">
+        <v>42521</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="13">
+        <v>42521</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>

--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -204,6 +204,26 @@
   </si>
   <si>
     <t>【房东PC】业主付N押N选择框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈佳文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】付款方式一可以取消选择问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东APP】首页数据和PC保持一致</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +886,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1372,16 +1392,36 @@
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="13">
+        <v>42521</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="13">
+        <v>42521</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="14"/>
@@ -1394,16 +1434,36 @@
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="14"/>
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="13">
+        <v>42521</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="13">
+        <v>42521</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="14"/>

--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>No</t>
   </si>
@@ -224,6 +224,10 @@
   </si>
   <si>
     <t>【房东APP】首页数据和PC保持一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】小区录入百度地图调用异常</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -886,7 +890,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1476,16 +1480,36 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="14"/>
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="13">
+        <v>42521</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="13">
+        <v>42521</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="14"/>

--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.1.3.3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
   <si>
     <t>No</t>
   </si>
@@ -228,6 +223,42 @@
   </si>
   <si>
     <t>【房东PC】小区录入百度地图调用异常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +921,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1007,10 +1038,18 @@
         <v>31</v>
       </c>
       <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
@@ -1049,8 +1088,12 @@
         <v>35</v>
       </c>
       <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
+      <c r="L3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="N3" s="13"/>
       <c r="O3" s="14"/>
       <c r="P3" s="7"/>
@@ -1091,8 +1134,12 @@
         <v>34</v>
       </c>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
+      <c r="L4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="N4" s="13"/>
       <c r="O4" s="14"/>
       <c r="P4" s="7"/>
@@ -1133,10 +1180,18 @@
         <v>45</v>
       </c>
       <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1175,10 +1230,18 @@
         <v>35</v>
       </c>
       <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="L6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -1217,10 +1280,18 @@
         <v>34</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="L7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -1259,10 +1330,18 @@
         <v>30</v>
       </c>
       <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="L8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -1301,10 +1380,18 @@
         <v>46</v>
       </c>
       <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="L9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -1343,10 +1430,18 @@
         <v>46</v>
       </c>
       <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="L10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -1385,10 +1480,18 @@
         <v>46</v>
       </c>
       <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="L11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -1427,8 +1530,12 @@
         <v>51</v>
       </c>
       <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
+      <c r="L12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
       <c r="P12" s="7"/>
@@ -1469,8 +1576,12 @@
         <v>52</v>
       </c>
       <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14"/>
+      <c r="L13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
       <c r="P13" s="7"/>
@@ -1511,10 +1622,18 @@
         <v>46</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="L14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>

--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -251,10 +251,6 @@
   </si>
   <si>
     <t>余星赞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -920,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1092,10 +1088,14 @@
         <v>60</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1138,10 +1138,14 @@
         <v>59</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1534,10 +1538,14 @@
         <v>59</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="N12" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -1580,7 +1588,7 @@
         <v>62</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>

--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.1.3.3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="65">
   <si>
     <t>No</t>
   </si>
@@ -255,6 +260,10 @@
   </si>
   <si>
     <t>测试中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +926,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:O12"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1033,7 +1042,9 @@
       <c r="J2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L2" s="12" t="s">
         <v>59</v>
       </c>
@@ -1083,7 +1094,9 @@
       <c r="J3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L3" s="12" t="s">
         <v>60</v>
       </c>
@@ -1133,7 +1146,9 @@
       <c r="J4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L4" s="12" t="s">
         <v>59</v>
       </c>
@@ -1183,7 +1198,9 @@
       <c r="J5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L5" s="12" t="s">
         <v>56</v>
       </c>
@@ -1233,7 +1250,9 @@
       <c r="J6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L6" s="12" t="s">
         <v>59</v>
       </c>
@@ -1283,7 +1302,9 @@
       <c r="J7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L7" s="12" t="s">
         <v>56</v>
       </c>
@@ -1333,7 +1354,9 @@
       <c r="J8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L8" s="12" t="s">
         <v>56</v>
       </c>
@@ -1383,7 +1406,9 @@
       <c r="J9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L9" s="12" t="s">
         <v>59</v>
       </c>
@@ -1433,7 +1458,9 @@
       <c r="J10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L10" s="12" t="s">
         <v>59</v>
       </c>
@@ -1483,7 +1510,9 @@
       <c r="J11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L11" s="12" t="s">
         <v>59</v>
       </c>
@@ -1533,7 +1562,9 @@
       <c r="J12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1583,7 +1614,9 @@
       <c r="J13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L13" s="12" t="s">
         <v>62</v>
       </c>
@@ -1629,7 +1662,9 @@
       <c r="J14" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="L14" s="12" t="s">
         <v>61</v>
       </c>

--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.1.3.3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -256,10 +251,6 @@
   </si>
   <si>
     <t>余星赞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -926,7 +917,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="M13" sqref="M13:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1043,7 +1034,7 @@
         <v>31</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>59</v>
@@ -1095,7 +1086,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>60</v>
@@ -1147,7 +1138,7 @@
         <v>34</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>59</v>
@@ -1199,7 +1190,7 @@
         <v>45</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>56</v>
@@ -1251,7 +1242,7 @@
         <v>35</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>59</v>
@@ -1303,7 +1294,7 @@
         <v>34</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>56</v>
@@ -1355,7 +1346,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>56</v>
@@ -1407,7 +1398,7 @@
         <v>46</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>59</v>
@@ -1459,7 +1450,7 @@
         <v>46</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>59</v>
@@ -1511,7 +1502,7 @@
         <v>46</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>59</v>
@@ -1563,7 +1554,7 @@
         <v>51</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>59</v>
@@ -1615,16 +1606,20 @@
         <v>52</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>62</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="N13" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -1663,7 +1658,7 @@
         <v>46</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>61</v>

--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_发现组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.1.3.3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -127,10 +132,6 @@
   </si>
   <si>
     <t>吕崇新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -917,7 +918,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:O13"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1007,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>29</v>
@@ -1027,26 +1028,24 @@
       <c r="H2" s="13">
         <v>42513</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N2" s="13">
         <v>42522</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -1059,13 +1058,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>28</v>
@@ -1079,26 +1078,24 @@
       <c r="H3" s="13">
         <v>42513</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="13">
         <v>42522</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1111,13 +1108,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>28</v>
@@ -1131,26 +1128,24 @@
       <c r="H4" s="13">
         <v>42513</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" s="13">
         <v>42522</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1163,13 +1158,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>28</v>
@@ -1183,26 +1178,24 @@
       <c r="H5" s="13">
         <v>42513</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="N5" s="13">
         <v>42522</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1215,13 +1208,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>28</v>
@@ -1235,26 +1228,24 @@
       <c r="H6" s="13">
         <v>42513</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N6" s="13">
         <v>42522</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -1267,13 +1258,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>28</v>
@@ -1287,26 +1278,24 @@
       <c r="H7" s="13">
         <v>42520</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I7" s="12"/>
       <c r="J7" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="N7" s="13">
         <v>42522</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1319,13 +1308,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>28</v>
@@ -1339,26 +1328,24 @@
       <c r="H8" s="13">
         <v>42521</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="N8" s="13">
         <v>42522</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1371,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>28</v>
@@ -1391,26 +1378,24 @@
       <c r="H9" s="13">
         <v>42521</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N9" s="13">
         <v>42522</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1423,13 +1408,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>28</v>
@@ -1443,26 +1428,24 @@
       <c r="H10" s="13">
         <v>42521</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I10" s="12"/>
       <c r="J10" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N10" s="13">
         <v>42522</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -1475,13 +1458,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>28</v>
@@ -1495,26 +1478,24 @@
       <c r="H11" s="13">
         <v>42521</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N11" s="13">
         <v>42522</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1527,13 +1508,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>28</v>
@@ -1547,26 +1528,24 @@
       <c r="H12" s="13">
         <v>42521</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N12" s="13">
         <v>42522</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1579,13 +1558,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>28</v>
@@ -1599,26 +1578,24 @@
       <c r="H13" s="13">
         <v>42521</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I13" s="12"/>
       <c r="J13" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N13" s="13">
         <v>42522</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1631,13 +1608,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>28</v>
@@ -1651,26 +1628,24 @@
       <c r="H14" s="13">
         <v>42521</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N14" s="13">
         <v>42522</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
